--- a/matlab/DietCodes.xlsx
+++ b/matlab/DietCodes.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D1760C-311A-40F1-B00E-8A8675EA14F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
   <si>
     <t>6026-1</t>
   </si>
@@ -199,12 +200,18 @@
   </si>
   <si>
     <t>BB</t>
+  </si>
+  <si>
+    <t>intervention</t>
+  </si>
+  <si>
+    <t>sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,463 +522,469 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B39" sqref="A39:B39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>58</v>
       </c>
     </row>
